--- a/Table/Table_xls/d道具类型表.xlsx
+++ b/Table/Table_xls/d道具类型表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mt3111\scheme_doc\excel_tool\data\xlsdir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\外包\我叫MT\project_table\Table\Table_xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C15C29-9492-45C5-8AD2-06D7C8B80E43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F21E409-BE7E-42FC-A51A-E00F06E29435}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="152">
   <si>
     <t>编号</t>
   </si>
@@ -532,12 +532,24 @@
     <t>fire.pb.item.XilianshiItem</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>fire.pb.item.DianhuashiItem</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点化石</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点化道具</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -568,6 +580,12 @@
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="15">
@@ -670,7 +688,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -709,6 +727,7 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1055,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XEW82"/>
+  <dimension ref="A1:XEW83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+      <selection activeCell="J79" activeCellId="1" sqref="A82:E83 J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18660,6 +18679,20 @@
         <v>146</v>
       </c>
     </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>673</v>
+      </c>
+      <c r="B83" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="C83" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="E83" s="34" t="s">
+        <v>151</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E82" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/Table/Table_xls/d道具类型表.xlsx
+++ b/Table/Table_xls/d道具类型表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\外包\我叫MT\project_table\Table\Table_xls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F21E409-BE7E-42FC-A51A-E00F06E29435}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28080" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,33 +12,26 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$82</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>Administrator:
+          <t xml:space="preserve">Administrator:
 道具总类型
 1=宠物道具
 2=食品
@@ -67,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150">
   <si>
     <t>编号</t>
   </si>
@@ -463,7 +450,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>fire.pb.item.</t>
     </r>
@@ -471,7 +458,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>equip.EquipSecItem</t>
     </r>
@@ -516,40 +503,35 @@
     <t>宠物内丹</t>
   </si>
   <si>
+    <t>fire.pb.item.groceries.ReincarnateItem</t>
+  </si>
+  <si>
     <t>转生道具</t>
   </si>
   <si>
-    <t>洗练石</t>
+    <t>fire.pb.item.XilianshiItem</t>
+  </si>
+  <si>
+    <t>恭喜发财独家制作</t>
   </si>
   <si>
     <t>洗练道具</t>
   </si>
   <si>
-    <t>fire.pb.item.groceries.ReincarnateItem</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>fire.pb.item.XilianshiItem</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>fire.pb.item.DianhuashiItem</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>点化石</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>点化道具</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -567,28 +549,163 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -597,7 +714,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,8 +790,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -682,13 +985,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -726,22 +1271,60 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1073,22 +1656,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:XEW83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="J79" activeCellId="1" sqref="A82:E83 J79"/>
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="46.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="46.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="17.5714285714286" customWidth="1"/>
     <col min="4" max="4" width="9" style="3"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1105,7 +1689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="5">
         <v>5</v>
       </c>
@@ -1120,7 +1704,7 @@
         <v>宝石</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="5">
         <v>33</v>
       </c>
@@ -1135,7 +1719,7 @@
         <v>宠物道具</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="5">
         <v>49</v>
       </c>
@@ -1150,7 +1734,7 @@
         <v>宠物道具</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="6">
         <v>177</v>
       </c>
@@ -1165,7 +1749,7 @@
         <v>宠物道具</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="6">
         <v>193</v>
       </c>
@@ -1180,7 +1764,7 @@
         <v>宠物道具</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="6">
         <v>209</v>
       </c>
@@ -1195,7 +1779,7 @@
         <v>宠物道具</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="6">
         <v>225</v>
       </c>
@@ -1210,7 +1794,7 @@
         <v>宠物道具</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" s="1" customFormat="1" spans="1:7">
       <c r="A9" s="10">
         <v>241</v>
       </c>
@@ -1226,7 +1810,7 @@
       </c>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="5">
         <v>66</v>
       </c>
@@ -1241,7 +1825,7 @@
         <v>食品</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="6">
         <v>290</v>
       </c>
@@ -1256,7 +1840,7 @@
         <v>食品</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="13">
         <v>19</v>
       </c>
@@ -1271,7 +1855,7 @@
         <v>药品</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="13">
         <v>35</v>
       </c>
@@ -1286,7 +1870,7 @@
         <v>药品</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="13">
         <v>51</v>
       </c>
@@ -1301,7 +1885,7 @@
         <v>药品</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="13">
         <v>67</v>
       </c>
@@ -1316,7 +1900,7 @@
         <v>药品</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="14"/>
       <c r="B16" s="14" t="s">
         <v>27</v>
@@ -1324,7 +1908,7 @@
       <c r="C16" s="14"/>
       <c r="E16" s="12"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="6">
         <v>275</v>
       </c>
@@ -1339,7 +1923,7 @@
         <v>药品</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="6">
         <v>291</v>
       </c>
@@ -1354,7 +1938,7 @@
         <v>药品</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="14">
         <v>307</v>
       </c>
@@ -1369,7 +1953,7 @@
         <v>药品</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="6">
         <v>323</v>
       </c>
@@ -1384,7 +1968,7 @@
         <v>药品</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="5">
         <v>70</v>
       </c>
@@ -1399,7 +1983,7 @@
         <v>杂货</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="5">
         <v>118</v>
       </c>
@@ -1414,7 +1998,7 @@
         <v>杂货</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="5">
         <v>150</v>
       </c>
@@ -1429,7 +2013,7 @@
         <v>杂货</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="5">
         <v>166</v>
       </c>
@@ -1444,7 +2028,7 @@
         <v>杂货</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="5">
         <v>198</v>
       </c>
@@ -1459,7 +2043,7 @@
         <v>杂货</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="13">
         <v>230</v>
       </c>
@@ -1474,7 +2058,7 @@
         <v>杂货</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="6">
         <v>262</v>
       </c>
@@ -1489,7 +2073,7 @@
         <v>杂货</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="6">
         <v>278</v>
       </c>
@@ -1504,7 +2088,7 @@
         <v>杂货</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="5">
         <v>294</v>
       </c>
@@ -1519,7 +2103,7 @@
         <v>杂货</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="6">
         <v>310</v>
       </c>
@@ -1534,7 +2118,7 @@
         <v>杂货</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="6">
         <v>326</v>
       </c>
@@ -1549,7 +2133,7 @@
         <v>杂货</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="6">
         <v>342</v>
       </c>
@@ -1564,7 +2148,7 @@
         <v>杂货</v>
       </c>
     </row>
-    <row r="33" spans="1:16377" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="6">
         <v>358</v>
       </c>
@@ -1579,7 +2163,7 @@
         <v>杂货</v>
       </c>
     </row>
-    <row r="34" spans="1:16377" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="34" ht="13.5" spans="1:16377">
       <c r="A34" s="6">
         <v>374</v>
       </c>
@@ -17967,7 +18551,7 @@
       <c r="XEV34" s="17"/>
       <c r="XEW34" s="17"/>
     </row>
-    <row r="35" spans="1:16377" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" s="14">
         <v>422</v>
       </c>
@@ -17982,7 +18566,7 @@
         <v>杂货</v>
       </c>
     </row>
-    <row r="36" spans="1:16377" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" s="6">
         <v>518</v>
       </c>
@@ -17993,11 +18577,11 @@
         <v>65</v>
       </c>
       <c r="E36" s="15" t="str">
-        <f t="shared" ref="E36:E40" si="12">IF(MOD(A36,16)=1,"宠物道具",IF(MOD(A36,16)=2,"食品",IF(MOD(A36,16)=3,"药品",IF(MOD(A36,16)=4,"暗器",IF(MOD(A36,16)=5,"宝石",IF(MOD(A36,16)=6,"杂货",IF(MOD(A36,16)=7,"装备相关道具",IF(MOD(A36,16)=8,"装备",IF(MOD(A36,16)=9,"任务道具")))))))))</f>
+        <f t="shared" ref="E36:E41" si="12">IF(MOD(A36,16)=1,"宠物道具",IF(MOD(A36,16)=2,"食品",IF(MOD(A36,16)=3,"药品",IF(MOD(A36,16)=4,"暗器",IF(MOD(A36,16)=5,"宝石",IF(MOD(A36,16)=6,"杂货",IF(MOD(A36,16)=7,"装备相关道具",IF(MOD(A36,16)=8,"装备",IF(MOD(A36,16)=9,"任务道具")))))))))</f>
         <v>杂货</v>
       </c>
     </row>
-    <row r="37" spans="1:16377" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" s="6">
         <v>534</v>
       </c>
@@ -18012,7 +18596,7 @@
         <v>杂货</v>
       </c>
     </row>
-    <row r="38" spans="1:16377" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" s="6">
         <v>390</v>
       </c>
@@ -18027,7 +18611,7 @@
         <v>杂货</v>
       </c>
     </row>
-    <row r="39" spans="1:16377" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" s="6">
         <v>550</v>
       </c>
@@ -18042,7 +18626,7 @@
         <v>杂货</v>
       </c>
     </row>
-    <row r="40" spans="1:16377" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" s="6">
         <v>566</v>
       </c>
@@ -18057,7 +18641,7 @@
         <v>杂货</v>
       </c>
     </row>
-    <row r="41" spans="1:16377" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" s="6">
         <v>582</v>
       </c>
@@ -18068,11 +18652,11 @@
         <v>75</v>
       </c>
       <c r="E41" s="15" t="str">
-        <f>IF(MOD(A41,16)=1,"宠物道具",IF(MOD(A41,16)=2,"食品",IF(MOD(A41,16)=3,"药品",IF(MOD(A41,16)=4,"暗器",IF(MOD(A41,16)=5,"宝石",IF(MOD(A41,16)=6,"杂货",IF(MOD(A41,16)=7,"装备相关道具",IF(MOD(A41,16)=8,"装备",IF(MOD(A41,16)=9,"任务道具")))))))))</f>
+        <f t="shared" si="12"/>
         <v>杂货</v>
       </c>
     </row>
-    <row r="42" spans="1:16377" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" s="18">
         <v>2470</v>
       </c>
@@ -18087,7 +18671,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:16377" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" s="5">
         <v>3734</v>
       </c>
@@ -18102,7 +18686,7 @@
         <v>杂货</v>
       </c>
     </row>
-    <row r="44" spans="1:16377" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" s="6">
         <v>4262</v>
       </c>
@@ -18117,7 +18701,7 @@
         <v>杂货</v>
       </c>
     </row>
-    <row r="45" spans="1:16377" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" s="6">
         <v>4278</v>
       </c>
@@ -18131,7 +18715,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:16377" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" s="6">
         <v>4518</v>
       </c>
@@ -18146,7 +18730,7 @@
         <v>杂货</v>
       </c>
     </row>
-    <row r="47" spans="1:16377" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" s="21">
         <v>4534</v>
       </c>
@@ -18161,7 +18745,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:16377" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" s="21">
         <v>4550</v>
       </c>
@@ -18176,7 +18760,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>4566</v>
       </c>
@@ -18190,7 +18774,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>4582</v>
       </c>
@@ -18204,7 +18788,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51" s="21">
         <v>4598</v>
       </c>
@@ -18219,7 +18803,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52" s="21">
         <v>4614</v>
       </c>
@@ -18234,7 +18818,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53" s="21">
         <v>4630</v>
       </c>
@@ -18249,7 +18833,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54" s="21">
         <v>4646</v>
       </c>
@@ -18264,7 +18848,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55" s="3">
         <v>4662</v>
       </c>
@@ -18278,7 +18862,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56" s="5">
         <v>40</v>
       </c>
@@ -18292,7 +18876,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57" s="5">
         <v>72</v>
       </c>
@@ -18306,7 +18890,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58" s="5">
         <v>88</v>
       </c>
@@ -18320,7 +18904,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59" s="5">
         <v>312</v>
       </c>
@@ -18334,7 +18918,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60" s="5">
         <v>568</v>
       </c>
@@ -18348,7 +18932,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61" s="14">
         <v>904</v>
       </c>
@@ -18360,7 +18944,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5">
       <c r="A62" s="5">
         <v>1288</v>
       </c>
@@ -18377,7 +18961,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="A63" s="6">
         <v>1384</v>
       </c>
@@ -18391,7 +18975,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64" s="6">
         <v>1640</v>
       </c>
@@ -18405,7 +18989,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65" s="5">
         <v>1800</v>
       </c>
@@ -18422,7 +19006,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66" s="5">
         <v>2824</v>
       </c>
@@ -18439,7 +19023,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5">
       <c r="A67" s="5">
         <v>3080</v>
       </c>
@@ -18453,7 +19037,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5">
       <c r="A68" s="5">
         <v>4104</v>
       </c>
@@ -18470,7 +19054,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5">
       <c r="A69" s="5">
         <v>4360</v>
       </c>
@@ -18487,7 +19071,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5">
       <c r="A70" s="5">
         <v>25</v>
       </c>
@@ -18502,7 +19086,7 @@
         <v>任务道具</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5">
       <c r="A71" s="5">
         <v>41</v>
       </c>
@@ -18517,7 +19101,7 @@
         <v>任务道具</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5">
       <c r="A72" s="14">
         <v>281</v>
       </c>
@@ -18532,7 +19116,7 @@
         <v>任务道具</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5">
       <c r="A73" s="13">
         <v>313</v>
       </c>
@@ -18547,7 +19131,7 @@
         <v>任务道具</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5">
       <c r="A74" s="27">
         <v>376</v>
       </c>
@@ -18562,7 +19146,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5">
       <c r="A75" s="27">
         <v>392</v>
       </c>
@@ -18577,7 +19161,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5">
       <c r="A76" s="27">
         <v>152</v>
       </c>
@@ -18592,7 +19176,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5">
       <c r="A77" s="27">
         <v>168</v>
       </c>
@@ -18607,7 +19191,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="78" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" s="2" customFormat="1" spans="1:5">
       <c r="A78" s="2">
         <v>184</v>
       </c>
@@ -18621,7 +19205,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>598</v>
       </c>
@@ -18635,7 +19219,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5">
       <c r="A80" s="30">
         <v>50</v>
       </c>
@@ -18650,54 +19234,54 @@
         <v>143</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5">
       <c r="A81">
         <v>599</v>
       </c>
       <c r="B81" s="33" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C81" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E81" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>657</v>
       </c>
       <c r="B82" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="C82" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="C82" s="22" t="s">
+        <v>147</v>
       </c>
       <c r="D82"/>
       <c r="E82" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="A83">
         <v>673</v>
       </c>
       <c r="B83" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="C83" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="E83" s="34" t="s">
-        <v>151</v>
+      <c r="C83" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D83"/>
+      <c r="E83" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E82" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <autoFilter ref="A1:E82"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/Table/Table_xls/d道具类型表.xlsx
+++ b/Table/Table_xls/d道具类型表.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$83</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -27,11 +27,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Administrator:
+          <t>Administrator:
 道具总类型
 1=宠物道具
 2=食品
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="152">
   <si>
     <t>编号</t>
   </si>
@@ -520,6 +519,12 @@
   <si>
     <t>fire.pb.item.DianhuashiItem</t>
   </si>
+  <si>
+    <t>fire.pb.item.ChongzhushiItem</t>
+  </si>
+  <si>
+    <t>重铸道具</t>
+  </si>
 </sst>
 </file>
 
@@ -527,11 +532,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -549,9 +554,89 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -561,8 +646,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -577,135 +699,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="46">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -792,25 +792,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,7 +810,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,13 +852,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,13 +864,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,13 +894,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,25 +906,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,7 +924,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -948,31 +966,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,30 +977,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1027,11 +997,39 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1054,23 +1052,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1078,8 +1072,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1088,152 +1082,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1271,7 +1265,6 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1325,6 +1318,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1651,17 +1649,16 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XEW83"/>
+  <dimension ref="A1:XEW84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+      <selection activeCell="O81" sqref="O81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -19238,7 +19235,7 @@
       <c r="A81">
         <v>599</v>
       </c>
-      <c r="B81" s="33" t="s">
+      <c r="B81" s="8" t="s">
         <v>144</v>
       </c>
       <c r="C81" t="s">
@@ -19252,7 +19249,7 @@
       <c r="A82">
         <v>657</v>
       </c>
-      <c r="B82" s="33" t="s">
+      <c r="B82" s="8" t="s">
         <v>146</v>
       </c>
       <c r="C82" s="22" t="s">
@@ -19267,7 +19264,7 @@
       <c r="A83">
         <v>673</v>
       </c>
-      <c r="B83" s="33" t="s">
+      <c r="B83" s="8" t="s">
         <v>149</v>
       </c>
       <c r="C83" s="22" t="s">
@@ -19278,8 +19275,25 @@
         <v>148</v>
       </c>
     </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>689</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C84" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D84"/>
+      <c r="E84" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E82"/>
+  <autoFilter ref="A1:E83">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>

--- a/Table/Table_xls/d道具类型表.xlsx
+++ b/Table/Table_xls/d道具类型表.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$84</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -531,10 +531,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -554,6 +554,57 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -570,15 +621,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -586,9 +631,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -600,9 +645,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,21 +683,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -640,59 +692,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -792,13 +792,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,13 +834,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,31 +870,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,25 +924,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,67 +942,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,41 +980,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1035,6 +1005,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1049,11 +1034,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1072,8 +1072,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1082,148 +1082,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1657,8 +1657,8 @@
   <sheetPr/>
   <dimension ref="A1:XEW84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="O81" sqref="O81"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -19291,7 +19291,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E83">
+  <autoFilter ref="A1:E84">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Table/Table_xls/d道具类型表.xlsx
+++ b/Table/Table_xls/d道具类型表.xlsx
@@ -578,9 +578,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,29 +615,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -645,16 +629,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -692,6 +669,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -709,14 +708,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -737,25 +737,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,7 +749,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,43 +761,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,7 +833,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,7 +881,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,61 +899,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,50 +927,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -986,6 +945,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1014,6 +984,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1022,153 +1007,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1583,8 +1583,8 @@
   <sheetPr/>
   <dimension ref="A1:XEW88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62:Q71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>

--- a/Table/Table_xls/d道具类型表.xlsx
+++ b/Table/Table_xls/d道具类型表.xlsx
@@ -543,10 +543,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -572,7 +572,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,8 +600,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,22 +644,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -629,9 +692,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -647,76 +709,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -737,25 +737,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,25 +791,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,97 +815,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -905,13 +845,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,6 +922,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -949,13 +964,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -977,48 +1014,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1027,148 +1027,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1584,7 +1584,7 @@
   <dimension ref="A1:XEW88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="7">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>26</v>
@@ -1829,12 +1829,12 @@
       </c>
       <c r="F12" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="7">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>28</v>
@@ -1848,12 +1848,12 @@
       </c>
       <c r="F13" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="7">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>30</v>
@@ -1867,12 +1867,12 @@
       </c>
       <c r="F14" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="7">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>32</v>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="F15" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6">

--- a/Table/Table_xls/d道具类型表.xlsx
+++ b/Table/Table_xls/d道具类型表.xlsx
@@ -2,12 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="配置说明" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$88</definedName>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="169">
   <si>
     <t>编号</t>
   </si>
@@ -136,10 +137,16 @@
     <t>fire.pb.item.petequip.BeltItem</t>
   </si>
   <si>
+    <t>宠物腰带</t>
+  </si>
+  <si>
     <t>宠物装备腰带</t>
   </si>
   <si>
     <t>fire.pb.item.petequip.ClothItem</t>
+  </si>
+  <si>
+    <t>宠物衣服</t>
   </si>
   <si>
     <t>宠物装备衣服</t>
@@ -148,10 +155,16 @@
     <t>fire.pb.item.petequip.HelmetItem</t>
   </si>
   <si>
+    <t>宠物头盔</t>
+  </si>
+  <si>
     <t>宠物装备头盔</t>
   </si>
   <si>
     <t>fire.pb.item.petequip.BootItem</t>
+  </si>
+  <si>
+    <t>宠物鞋子</t>
   </si>
   <si>
     <t>宠物装备鞋子</t>
@@ -537,16 +550,28 @@
   <si>
     <t>秘籍</t>
   </si>
+  <si>
+    <t>道具类型</t>
+  </si>
+  <si>
+    <t>ID &amp; 15</t>
+  </si>
+  <si>
+    <t>装备部位</t>
+  </si>
+  <si>
+    <t>ID&gt;&gt;4 &amp; 15</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -572,7 +597,114 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -587,28 +719,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -616,92 +726,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -716,7 +741,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -737,7 +762,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,7 +780,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,13 +792,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,13 +828,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,13 +852,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,67 +912,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,19 +924,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,7 +936,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,6 +947,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -944,70 +1023,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1022,163 +1038,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1583,35 +1608,35 @@
   <sheetPr/>
   <dimension ref="A1:XEW88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="46.2857142857143" customWidth="1"/>
     <col min="3" max="3" width="17.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="9" style="3"/>
+    <col min="4" max="4" width="9" style="4"/>
     <col min="5" max="5" width="13.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1755,7 +1780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:7">
+    <row r="9" s="2" customFormat="1" spans="1:7">
       <c r="A9" s="7">
         <v>657</v>
       </c>
@@ -1815,17 +1840,17 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="7">
-        <v>698</v>
+        <v>794</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F12" s="9">
         <f t="shared" si="1"/>
@@ -1834,17 +1859,17 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="7">
-        <v>714</v>
+        <v>810</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F13" s="9">
         <f t="shared" si="1"/>
@@ -1853,17 +1878,17 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="7">
-        <v>730</v>
+        <v>826</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F14" s="9">
         <f t="shared" si="1"/>
@@ -1872,17 +1897,17 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="7">
-        <v>746</v>
+        <v>842</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F15" s="9">
         <f t="shared" si="1"/>
@@ -1894,14 +1919,14 @@
         <v>50</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F16" s="9">
         <f t="shared" si="1"/>
@@ -1913,10 +1938,10 @@
         <v>66</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="8" t="str">
@@ -1933,10 +1958,10 @@
         <v>290</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="8" t="str">
@@ -1953,10 +1978,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="8" t="str">
@@ -1973,10 +1998,10 @@
         <v>35</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="8" t="str">
@@ -1993,10 +2018,10 @@
         <v>51</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="8" t="str">
@@ -2013,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="8" t="str">
@@ -2033,10 +2058,10 @@
         <v>275</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="8" t="str">
@@ -2053,10 +2078,10 @@
         <v>291</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="8" t="str">
@@ -2073,10 +2098,10 @@
         <v>307</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="8" t="str">
@@ -2093,10 +2118,10 @@
         <v>323</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="8" t="str">
@@ -2113,10 +2138,10 @@
         <v>5</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="8" t="str">
@@ -2133,10 +2158,10 @@
         <v>70</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="8" t="str">
@@ -2153,10 +2178,10 @@
         <v>118</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="8" t="str">
@@ -2173,10 +2198,10 @@
         <v>150</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="8" t="str">
@@ -2193,10 +2218,10 @@
         <v>166</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="8" t="str">
@@ -2213,10 +2238,10 @@
         <v>198</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="8" t="str">
@@ -2233,10 +2258,10 @@
         <v>230</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="8" t="str">
@@ -2253,10 +2278,10 @@
         <v>262</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="8" t="str">
@@ -18643,10 +18668,10 @@
         <v>278</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="8" t="str">
@@ -18663,12 +18688,12 @@
         <v>294</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="D36" s="2"/>
       <c r="E36" s="8" t="str">
         <f t="shared" si="2"/>
         <v>杂货</v>
@@ -18683,10 +18708,10 @@
         <v>310</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="8" t="str">
@@ -18703,10 +18728,10 @@
         <v>326</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="8" t="str">
@@ -18723,10 +18748,10 @@
         <v>342</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="8" t="str">
@@ -18743,10 +18768,10 @@
         <v>358</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="8" t="str">
@@ -18763,10 +18788,10 @@
         <v>374</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D41" s="12"/>
       <c r="E41" s="8" t="str">
@@ -18783,10 +18808,10 @@
         <v>390</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="8" t="str">
@@ -18803,10 +18828,10 @@
         <v>422</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="8" t="str">
@@ -18823,10 +18848,10 @@
         <v>518</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="8" t="str">
@@ -18843,10 +18868,10 @@
         <v>534</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="8" t="str">
@@ -18863,10 +18888,10 @@
         <v>550</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="8" t="str">
@@ -18883,10 +18908,10 @@
         <v>566</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="8" t="str">
@@ -18903,10 +18928,10 @@
         <v>582</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="8" t="str">
@@ -18923,14 +18948,14 @@
         <v>598</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F49" s="9">
         <f t="shared" si="1"/>
@@ -18942,14 +18967,14 @@
         <v>2470</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F50" s="9">
         <f t="shared" si="1"/>
@@ -18961,10 +18986,10 @@
         <v>3734</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="8" t="str">
@@ -18981,10 +19006,10 @@
         <v>4262</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="8" t="str">
@@ -19001,14 +19026,14 @@
         <v>4278</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F53" s="9">
         <f t="shared" si="1"/>
@@ -19020,10 +19045,10 @@
         <v>4518</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="8" t="str">
@@ -19040,14 +19065,14 @@
         <v>4534</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F55" s="9">
         <f t="shared" si="1"/>
@@ -19059,14 +19084,14 @@
         <v>4550</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F56" s="9">
         <f t="shared" si="1"/>
@@ -19078,14 +19103,14 @@
         <v>4566</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F57" s="9">
         <f t="shared" si="1"/>
@@ -19097,14 +19122,14 @@
         <v>4582</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F58" s="9">
         <f t="shared" si="1"/>
@@ -19116,14 +19141,14 @@
         <v>4598</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F59" s="9">
         <f t="shared" si="1"/>
@@ -19135,14 +19160,14 @@
         <v>4614</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F60" s="9">
         <f t="shared" si="1"/>
@@ -19154,14 +19179,14 @@
         <v>4630</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F61" s="9">
         <f t="shared" si="1"/>
@@ -19173,14 +19198,14 @@
         <v>4646</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F62" s="9">
         <f t="shared" si="1"/>
@@ -19192,14 +19217,14 @@
         <v>4662</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F63" s="9">
         <f t="shared" si="1"/>
@@ -19211,14 +19236,14 @@
         <v>599</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="8" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F64" s="9">
         <f t="shared" si="1"/>
@@ -19230,14 +19255,14 @@
         <v>40</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D65" s="7"/>
       <c r="E65" s="8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F65" s="9">
         <f t="shared" si="1"/>
@@ -19249,14 +19274,14 @@
         <v>72</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F66" s="9">
         <f t="shared" ref="F66:F87" si="3">_xlfn.BITAND(A66,15)</f>
@@ -19268,14 +19293,14 @@
         <v>88</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F67" s="9">
         <f t="shared" si="3"/>
@@ -19287,14 +19312,14 @@
         <v>152</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="8" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F68" s="9">
         <f t="shared" si="3"/>
@@ -19306,14 +19331,14 @@
         <v>168</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="8" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F69" s="9">
         <f t="shared" si="3"/>
@@ -19325,14 +19350,14 @@
         <v>184</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="8" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F70" s="9">
         <f t="shared" si="3"/>
@@ -19344,14 +19369,14 @@
         <v>312</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F71" s="9">
         <f t="shared" si="3"/>
@@ -19363,14 +19388,14 @@
         <v>376</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="8" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F72" s="9">
         <f t="shared" si="3"/>
@@ -19382,14 +19407,14 @@
         <v>392</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="8" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F73" s="9">
         <f t="shared" si="3"/>
@@ -19401,14 +19426,14 @@
         <v>568</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F74" s="9">
         <f t="shared" si="3"/>
@@ -19421,11 +19446,11 @@
       </c>
       <c r="B75" s="7"/>
       <c r="C75" s="8" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F75" s="9">
         <f t="shared" si="3"/>
@@ -19437,16 +19462,16 @@
         <v>1288</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F76" s="9">
         <f t="shared" si="3"/>
@@ -19458,33 +19483,33 @@
         <v>1384</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F77" s="9">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
-    <row r="78" s="2" customFormat="1" spans="1:6">
+    <row r="78" s="3" customFormat="1" spans="1:6">
       <c r="A78" s="7">
         <v>1640</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D78" s="7"/>
       <c r="E78" s="8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F78" s="9">
         <f t="shared" si="3"/>
@@ -19496,16 +19521,16 @@
         <v>1800</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F79" s="9">
         <f t="shared" si="3"/>
@@ -19517,16 +19542,16 @@
         <v>2824</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F80" s="9">
         <f t="shared" si="3"/>
@@ -19538,14 +19563,14 @@
         <v>3080</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F81" s="9">
         <f t="shared" si="3"/>
@@ -19557,16 +19582,16 @@
         <v>4104</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F82" s="9">
         <f t="shared" si="3"/>
@@ -19578,16 +19603,16 @@
         <v>4360</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F83" s="9">
         <f t="shared" si="3"/>
@@ -19599,10 +19624,10 @@
         <v>25</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="8" t="str">
@@ -19619,10 +19644,10 @@
         <v>41</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D85" s="7"/>
       <c r="E85" s="8" t="str">
@@ -19639,10 +19664,10 @@
         <v>281</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D86" s="7"/>
       <c r="E86" s="8" t="str">
@@ -19659,10 +19684,10 @@
         <v>313</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D87" s="7"/>
       <c r="E87" s="8" t="str">
@@ -19676,16 +19701,16 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="7"/>
-      <c r="B88" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
+      <c r="B88" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F88">
-    <sortState ref="A1:F88">
+    <sortState ref="A2:F88">
       <sortCondition ref="F1"/>
     </sortState>
     <extLst/>
@@ -19695,4 +19720,37 @@
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Table/Table_xls/d道具类型表.xlsx
+++ b/Table/Table_xls/d道具类型表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,34 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>weic</author>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>weic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+道具类型 ID &amp; 15
+装备部位 ID&gt;&gt;4 &amp; 15</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -568,10 +592,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -597,14 +621,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -626,45 +658,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -678,17 +679,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -719,14 +711,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -742,6 +759,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -762,37 +786,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,103 +798,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,7 +828,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,7 +894,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,15 +971,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -974,6 +989,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -985,21 +1009,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1028,6 +1037,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1052,148 +1076,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1608,8 +1632,8 @@
   <sheetPr/>
   <dimension ref="A1:XEW88"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -19710,7 +19734,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F88">
-    <sortState ref="A2:F88">
+    <sortState ref="A1:F88">
       <sortCondition ref="F1"/>
     </sortState>
     <extLst/>
@@ -19727,8 +19751,8 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>

--- a/Table/Table_xls/d道具类型表.xlsx
+++ b/Table/Table_xls/d道具类型表.xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="168">
   <si>
     <t>编号</t>
   </si>
@@ -158,7 +158,7 @@
     <t>重铸道具</t>
   </si>
   <si>
-    <t>fire.pb.item.petequip.BeltItem</t>
+    <t>fire.pb.item.petequip.BootItem</t>
   </si>
   <si>
     <t>宠物腰带</t>
@@ -176,16 +176,13 @@
     <t>宠物装备衣服</t>
   </si>
   <si>
-    <t>fire.pb.item.petequip.HelmetItem</t>
+    <t>fire.pb.item.petequip.HammerItem</t>
   </si>
   <si>
     <t>宠物头盔</t>
   </si>
   <si>
     <t>宠物装备头盔</t>
-  </si>
-  <si>
-    <t>fire.pb.item.petequip.BootItem</t>
   </si>
   <si>
     <t>宠物鞋子</t>
@@ -592,10 +589,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -627,21 +624,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -652,6 +634,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,7 +662,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,13 +715,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -741,17 +739,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -764,8 +760,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -786,19 +783,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,13 +807,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,7 +831,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,7 +849,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,13 +861,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,13 +891,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,25 +903,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,7 +927,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,25 +957,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,25 +971,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1008,6 +1001,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1054,17 +1062,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1079,10 +1076,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1091,19 +1088,19 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1112,112 +1109,112 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1633,7 +1630,7 @@
   <dimension ref="A1:XEW88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:G15"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1924,14 +1921,14 @@
         <v>842</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" s="9">
         <f t="shared" si="1"/>
@@ -1943,14 +1940,14 @@
         <v>50</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16" s="9">
         <f t="shared" si="1"/>
@@ -1962,10 +1959,10 @@
         <v>66</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="8" t="str">
@@ -1982,10 +1979,10 @@
         <v>290</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="8" t="str">
@@ -2002,10 +1999,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="8" t="str">
@@ -2022,10 +2019,10 @@
         <v>35</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="8" t="str">
@@ -2042,10 +2039,10 @@
         <v>51</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="8" t="str">
@@ -2062,10 +2059,10 @@
         <v>67</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="8" t="str">
@@ -2082,10 +2079,10 @@
         <v>275</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="8" t="str">
@@ -2102,10 +2099,10 @@
         <v>291</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="8" t="str">
@@ -2122,10 +2119,10 @@
         <v>307</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="8" t="str">
@@ -2142,10 +2139,10 @@
         <v>323</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="8" t="str">
@@ -2162,10 +2159,10 @@
         <v>5</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="8" t="str">
@@ -2182,10 +2179,10 @@
         <v>70</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="8" t="str">
@@ -2202,10 +2199,10 @@
         <v>118</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="8" t="str">
@@ -2222,10 +2219,10 @@
         <v>150</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="8" t="str">
@@ -2242,10 +2239,10 @@
         <v>166</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="8" t="str">
@@ -2262,10 +2259,10 @@
         <v>198</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="8" t="str">
@@ -2282,10 +2279,10 @@
         <v>230</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>67</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="8" t="str">
@@ -2302,10 +2299,10 @@
         <v>262</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="8" t="str">
@@ -18692,10 +18689,10 @@
         <v>278</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="8" t="str">
@@ -18712,10 +18709,10 @@
         <v>294</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="8" t="str">
@@ -18732,10 +18729,10 @@
         <v>310</v>
       </c>
       <c r="B37" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="8" t="str">
@@ -18752,10 +18749,10 @@
         <v>326</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="8" t="str">
@@ -18772,10 +18769,10 @@
         <v>342</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="8" t="str">
@@ -18792,10 +18789,10 @@
         <v>358</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="8" t="str">
@@ -18812,10 +18809,10 @@
         <v>374</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D41" s="12"/>
       <c r="E41" s="8" t="str">
@@ -18832,10 +18829,10 @@
         <v>390</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="8" t="str">
@@ -18852,10 +18849,10 @@
         <v>422</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="8" t="str">
@@ -18872,10 +18869,10 @@
         <v>518</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>88</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="8" t="str">
@@ -18892,10 +18889,10 @@
         <v>534</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="8" t="str">
@@ -18912,10 +18909,10 @@
         <v>550</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="8" t="str">
@@ -18932,10 +18929,10 @@
         <v>566</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="8" t="str">
@@ -18952,10 +18949,10 @@
         <v>582</v>
       </c>
       <c r="B48" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>96</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="8" t="str">
@@ -18972,14 +18969,14 @@
         <v>598</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F49" s="9">
         <f t="shared" si="1"/>
@@ -18991,14 +18988,14 @@
         <v>2470</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F50" s="9">
         <f t="shared" si="1"/>
@@ -19010,10 +19007,10 @@
         <v>3734</v>
       </c>
       <c r="B51" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>101</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="8" t="str">
@@ -19030,10 +19027,10 @@
         <v>4262</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="8" t="str">
@@ -19050,14 +19047,14 @@
         <v>4278</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F53" s="9">
         <f t="shared" si="1"/>
@@ -19069,10 +19066,10 @@
         <v>4518</v>
       </c>
       <c r="B54" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="8" t="str">
@@ -19089,14 +19086,14 @@
         <v>4534</v>
       </c>
       <c r="B55" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>104</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>105</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F55" s="9">
         <f t="shared" si="1"/>
@@ -19108,14 +19105,14 @@
         <v>4550</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F56" s="9">
         <f t="shared" si="1"/>
@@ -19127,14 +19124,14 @@
         <v>4566</v>
       </c>
       <c r="B57" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>108</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F57" s="9">
         <f t="shared" si="1"/>
@@ -19146,14 +19143,14 @@
         <v>4582</v>
       </c>
       <c r="B58" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>110</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F58" s="9">
         <f t="shared" si="1"/>
@@ -19165,14 +19162,14 @@
         <v>4598</v>
       </c>
       <c r="B59" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>112</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F59" s="9">
         <f t="shared" si="1"/>
@@ -19184,14 +19181,14 @@
         <v>4614</v>
       </c>
       <c r="B60" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>114</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F60" s="9">
         <f t="shared" si="1"/>
@@ -19203,14 +19200,14 @@
         <v>4630</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F61" s="9">
         <f t="shared" si="1"/>
@@ -19222,14 +19219,14 @@
         <v>4646</v>
       </c>
       <c r="B62" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>117</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F62" s="9">
         <f t="shared" si="1"/>
@@ -19241,14 +19238,14 @@
         <v>4662</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F63" s="9">
         <f t="shared" si="1"/>
@@ -19260,14 +19257,14 @@
         <v>599</v>
       </c>
       <c r="B64" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C64" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>120</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F64" s="9">
         <f t="shared" si="1"/>
@@ -19279,14 +19276,14 @@
         <v>40</v>
       </c>
       <c r="B65" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="D65" s="7"/>
       <c r="E65" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F65" s="9">
         <f t="shared" si="1"/>
@@ -19298,14 +19295,14 @@
         <v>72</v>
       </c>
       <c r="B66" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C66" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>125</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F66" s="9">
         <f t="shared" ref="F66:F87" si="3">_xlfn.BITAND(A66,15)</f>
@@ -19317,14 +19314,14 @@
         <v>88</v>
       </c>
       <c r="B67" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C67" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>127</v>
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F67" s="9">
         <f t="shared" si="3"/>
@@ -19336,14 +19333,14 @@
         <v>152</v>
       </c>
       <c r="B68" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F68" s="9">
         <f t="shared" si="3"/>
@@ -19355,14 +19352,14 @@
         <v>168</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F69" s="9">
         <f t="shared" si="3"/>
@@ -19374,14 +19371,14 @@
         <v>184</v>
       </c>
       <c r="B70" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C70" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>132</v>
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F70" s="9">
         <f t="shared" si="3"/>
@@ -19393,14 +19390,14 @@
         <v>312</v>
       </c>
       <c r="B71" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C71" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>135</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F71" s="9">
         <f t="shared" si="3"/>
@@ -19412,14 +19409,14 @@
         <v>376</v>
       </c>
       <c r="B72" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C72" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>137</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F72" s="9">
         <f t="shared" si="3"/>
@@ -19431,14 +19428,14 @@
         <v>392</v>
       </c>
       <c r="B73" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C73" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>139</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F73" s="9">
         <f t="shared" si="3"/>
@@ -19450,14 +19447,14 @@
         <v>568</v>
       </c>
       <c r="B74" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C74" s="8" t="s">
         <v>140</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>141</v>
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F74" s="9">
         <f t="shared" si="3"/>
@@ -19470,11 +19467,11 @@
       </c>
       <c r="B75" s="7"/>
       <c r="C75" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F75" s="9">
         <f t="shared" si="3"/>
@@ -19486,16 +19483,16 @@
         <v>1288</v>
       </c>
       <c r="B76" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C76" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="D76" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D76" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="E76" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F76" s="9">
         <f t="shared" si="3"/>
@@ -19507,14 +19504,14 @@
         <v>1384</v>
       </c>
       <c r="B77" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C77" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>147</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F77" s="9">
         <f t="shared" si="3"/>
@@ -19526,14 +19523,14 @@
         <v>1640</v>
       </c>
       <c r="B78" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C78" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>149</v>
       </c>
       <c r="D78" s="7"/>
       <c r="E78" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F78" s="9">
         <f t="shared" si="3"/>
@@ -19545,16 +19542,16 @@
         <v>1800</v>
       </c>
       <c r="B79" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D79" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C79" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>151</v>
-      </c>
       <c r="E79" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F79" s="9">
         <f t="shared" si="3"/>
@@ -19566,16 +19563,16 @@
         <v>2824</v>
       </c>
       <c r="B80" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D80" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C80" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>153</v>
-      </c>
       <c r="E80" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F80" s="9">
         <f t="shared" si="3"/>
@@ -19587,14 +19584,14 @@
         <v>3080</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F81" s="9">
         <f t="shared" si="3"/>
@@ -19606,16 +19603,16 @@
         <v>4104</v>
       </c>
       <c r="B82" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D82" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C82" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="E82" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F82" s="9">
         <f t="shared" si="3"/>
@@ -19627,16 +19624,16 @@
         <v>4360</v>
       </c>
       <c r="B83" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D83" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C83" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>158</v>
-      </c>
       <c r="E83" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F83" s="9">
         <f t="shared" si="3"/>
@@ -19648,10 +19645,10 @@
         <v>25</v>
       </c>
       <c r="B84" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C84" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>160</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="8" t="str">
@@ -19668,10 +19665,10 @@
         <v>41</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D85" s="7"/>
       <c r="E85" s="8" t="str">
@@ -19688,10 +19685,10 @@
         <v>281</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D86" s="7"/>
       <c r="E86" s="8" t="str">
@@ -19708,10 +19705,10 @@
         <v>313</v>
       </c>
       <c r="B87" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C87" s="8" t="s">
         <v>163</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>164</v>
       </c>
       <c r="D87" s="7"/>
       <c r="E87" s="8" t="str">
@@ -19726,7 +19723,7 @@
     <row r="88" spans="1:5">
       <c r="A88" s="7"/>
       <c r="B88" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -19759,18 +19756,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" t="s">
         <v>165</v>
-      </c>
-      <c r="B1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" t="s">
         <v>167</v>
-      </c>
-      <c r="B2" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/Table/Table_xls/d道具类型表.xlsx
+++ b/Table/Table_xls/d道具类型表.xlsx
@@ -20,34 +20,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>weic</author>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>weic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-道具类型 ID &amp; 15
-装备部位 ID&gt;&gt;4 &amp; 15</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="1">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="169">
   <si>
     <t>编号</t>
   </si>
@@ -158,7 +134,7 @@
     <t>重铸道具</t>
   </si>
   <si>
-    <t>fire.pb.item.petequip.BootItem</t>
+    <t>fire.pb.item.petequip.BeltItem</t>
   </si>
   <si>
     <t>宠物腰带</t>
@@ -176,13 +152,16 @@
     <t>宠物装备衣服</t>
   </si>
   <si>
-    <t>fire.pb.item.petequip.HammerItem</t>
+    <t>fire.pb.item.petequip.HelmetItem</t>
   </si>
   <si>
     <t>宠物头盔</t>
   </si>
   <si>
     <t>宠物装备头盔</t>
+  </si>
+  <si>
+    <t>fire.pb.item.petequip.BootItem</t>
   </si>
   <si>
     <t>宠物鞋子</t>
@@ -590,9 +569,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -620,7 +599,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -642,6 +628,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -653,16 +646,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -678,14 +671,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -715,6 +701,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -732,37 +740,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -783,19 +762,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,7 +786,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,7 +852,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,79 +912,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,43 +930,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,13 +959,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1006,6 +1004,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1021,50 +1037,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1073,148 +1052,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1630,7 +1609,7 @@
   <dimension ref="A1:XEW88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1921,14 +1900,14 @@
         <v>842</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F15" s="9">
         <f t="shared" si="1"/>
@@ -1940,14 +1919,14 @@
         <v>50</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F16" s="9">
         <f t="shared" si="1"/>
@@ -1959,10 +1938,10 @@
         <v>66</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="8" t="str">
@@ -1979,10 +1958,10 @@
         <v>290</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="8" t="str">
@@ -1999,10 +1978,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="8" t="str">
@@ -2019,10 +1998,10 @@
         <v>35</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="8" t="str">
@@ -2039,10 +2018,10 @@
         <v>51</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="8" t="str">
@@ -2059,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="8" t="str">
@@ -2079,10 +2058,10 @@
         <v>275</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="8" t="str">
@@ -2099,10 +2078,10 @@
         <v>291</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="8" t="str">
@@ -2119,10 +2098,10 @@
         <v>307</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="8" t="str">
@@ -2139,10 +2118,10 @@
         <v>323</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="8" t="str">
@@ -2159,10 +2138,10 @@
         <v>5</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="8" t="str">
@@ -2179,10 +2158,10 @@
         <v>70</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="8" t="str">
@@ -2199,10 +2178,10 @@
         <v>118</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="8" t="str">
@@ -2219,10 +2198,10 @@
         <v>150</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="8" t="str">
@@ -2239,10 +2218,10 @@
         <v>166</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="8" t="str">
@@ -2259,10 +2238,10 @@
         <v>198</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="8" t="str">
@@ -2279,10 +2258,10 @@
         <v>230</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="8" t="str">
@@ -2299,10 +2278,10 @@
         <v>262</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="8" t="str">
@@ -18689,10 +18668,10 @@
         <v>278</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="8" t="str">
@@ -18709,10 +18688,10 @@
         <v>294</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="8" t="str">
@@ -18729,10 +18708,10 @@
         <v>310</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="8" t="str">
@@ -18749,10 +18728,10 @@
         <v>326</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="8" t="str">
@@ -18769,10 +18748,10 @@
         <v>342</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="8" t="str">
@@ -18789,10 +18768,10 @@
         <v>358</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="8" t="str">
@@ -18809,10 +18788,10 @@
         <v>374</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D41" s="12"/>
       <c r="E41" s="8" t="str">
@@ -18829,10 +18808,10 @@
         <v>390</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="8" t="str">
@@ -18849,10 +18828,10 @@
         <v>422</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="8" t="str">
@@ -18869,10 +18848,10 @@
         <v>518</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="8" t="str">
@@ -18889,10 +18868,10 @@
         <v>534</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="8" t="str">
@@ -18909,10 +18888,10 @@
         <v>550</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="8" t="str">
@@ -18929,10 +18908,10 @@
         <v>566</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="8" t="str">
@@ -18949,10 +18928,10 @@
         <v>582</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="8" t="str">
@@ -18969,14 +18948,14 @@
         <v>598</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F49" s="9">
         <f t="shared" si="1"/>
@@ -18988,14 +18967,14 @@
         <v>2470</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F50" s="9">
         <f t="shared" si="1"/>
@@ -19007,10 +18986,10 @@
         <v>3734</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="8" t="str">
@@ -19027,10 +19006,10 @@
         <v>4262</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="8" t="str">
@@ -19047,14 +19026,14 @@
         <v>4278</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F53" s="9">
         <f t="shared" si="1"/>
@@ -19066,10 +19045,10 @@
         <v>4518</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="8" t="str">
@@ -19086,14 +19065,14 @@
         <v>4534</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F55" s="9">
         <f t="shared" si="1"/>
@@ -19105,14 +19084,14 @@
         <v>4550</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F56" s="9">
         <f t="shared" si="1"/>
@@ -19124,14 +19103,14 @@
         <v>4566</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F57" s="9">
         <f t="shared" si="1"/>
@@ -19143,14 +19122,14 @@
         <v>4582</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F58" s="9">
         <f t="shared" si="1"/>
@@ -19162,14 +19141,14 @@
         <v>4598</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F59" s="9">
         <f t="shared" si="1"/>
@@ -19181,14 +19160,14 @@
         <v>4614</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F60" s="9">
         <f t="shared" si="1"/>
@@ -19200,14 +19179,14 @@
         <v>4630</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F61" s="9">
         <f t="shared" si="1"/>
@@ -19219,14 +19198,14 @@
         <v>4646</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F62" s="9">
         <f t="shared" si="1"/>
@@ -19238,14 +19217,14 @@
         <v>4662</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F63" s="9">
         <f t="shared" si="1"/>
@@ -19257,14 +19236,14 @@
         <v>599</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F64" s="9">
         <f t="shared" si="1"/>
@@ -19276,14 +19255,14 @@
         <v>40</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D65" s="7"/>
       <c r="E65" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F65" s="9">
         <f t="shared" si="1"/>
@@ -19295,14 +19274,14 @@
         <v>72</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F66" s="9">
         <f t="shared" ref="F66:F87" si="3">_xlfn.BITAND(A66,15)</f>
@@ -19314,14 +19293,14 @@
         <v>88</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F67" s="9">
         <f t="shared" si="3"/>
@@ -19333,14 +19312,14 @@
         <v>152</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F68" s="9">
         <f t="shared" si="3"/>
@@ -19352,14 +19331,14 @@
         <v>168</v>
       </c>
       <c r="B69" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69" s="8" t="s">
         <v>129</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>128</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F69" s="9">
         <f t="shared" si="3"/>
@@ -19371,14 +19350,14 @@
         <v>184</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F70" s="9">
         <f t="shared" si="3"/>
@@ -19390,14 +19369,14 @@
         <v>312</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F71" s="9">
         <f t="shared" si="3"/>
@@ -19409,14 +19388,14 @@
         <v>376</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F72" s="9">
         <f t="shared" si="3"/>
@@ -19428,14 +19407,14 @@
         <v>392</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F73" s="9">
         <f t="shared" si="3"/>
@@ -19447,14 +19426,14 @@
         <v>568</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F74" s="9">
         <f t="shared" si="3"/>
@@ -19467,11 +19446,11 @@
       </c>
       <c r="B75" s="7"/>
       <c r="C75" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F75" s="9">
         <f t="shared" si="3"/>
@@ -19483,16 +19462,16 @@
         <v>1288</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F76" s="9">
         <f t="shared" si="3"/>
@@ -19504,14 +19483,14 @@
         <v>1384</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F77" s="9">
         <f t="shared" si="3"/>
@@ -19523,14 +19502,14 @@
         <v>1640</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D78" s="7"/>
       <c r="E78" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F78" s="9">
         <f t="shared" si="3"/>
@@ -19542,16 +19521,16 @@
         <v>1800</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F79" s="9">
         <f t="shared" si="3"/>
@@ -19563,16 +19542,16 @@
         <v>2824</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F80" s="9">
         <f t="shared" si="3"/>
@@ -19584,14 +19563,14 @@
         <v>3080</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F81" s="9">
         <f t="shared" si="3"/>
@@ -19603,16 +19582,16 @@
         <v>4104</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F82" s="9">
         <f t="shared" si="3"/>
@@ -19624,16 +19603,16 @@
         <v>4360</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F83" s="9">
         <f t="shared" si="3"/>
@@ -19645,10 +19624,10 @@
         <v>25</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="8" t="str">
@@ -19665,10 +19644,10 @@
         <v>41</v>
       </c>
       <c r="B85" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C85" s="8" t="s">
         <v>160</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>159</v>
       </c>
       <c r="D85" s="7"/>
       <c r="E85" s="8" t="str">
@@ -19685,10 +19664,10 @@
         <v>281</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D86" s="7"/>
       <c r="E86" s="8" t="str">
@@ -19705,10 +19684,10 @@
         <v>313</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D87" s="7"/>
       <c r="E87" s="8" t="str">
@@ -19723,7 +19702,7 @@
     <row r="88" spans="1:5">
       <c r="A88" s="7"/>
       <c r="B88" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -19749,25 +19728,25 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/Table/Table_xls/d道具类型表.xlsx
+++ b/Table/Table_xls/d道具类型表.xlsx
@@ -152,7 +152,7 @@
     <t>宠物装备衣服</t>
   </si>
   <si>
-    <t>fire.pb.item.petequip.HelmetItem</t>
+    <t>fire.pb.item.petequip.HammerItem</t>
   </si>
   <si>
     <t>宠物头盔</t>
@@ -568,9 +568,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -597,6 +597,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -604,7 +611,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,43 +647,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -677,8 +655,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -702,14 +718,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -723,17 +732,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -762,13 +762,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,7 +816,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,37 +876,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,19 +894,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,79 +936,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,45 +947,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1008,7 +969,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1018,6 +994,30 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1052,148 +1052,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1609,7 +1609,7 @@
   <dimension ref="A1:XEW88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
